--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_3.xlsx
@@ -478,528 +478,528 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_4</t>
+          <t>model_10_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1939709959387065</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.820970722146804</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D2" t="n">
-        <v>-18.06833469771232</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.097097860389509</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8920365571975708</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G2" t="n">
-        <v>3.092759132385254</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H2" t="n">
-        <v>2.531768321990967</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I2" t="n">
-        <v>2.828763008117676</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_0</t>
+          <t>model_10_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2379932213392038</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.71439276031249</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D3" t="n">
-        <v>-17.0575552458014</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.47571716658201</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8433169722557068</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G3" t="n">
-        <v>2.259724855422974</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H3" t="n">
-        <v>2.397563934326172</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I3" t="n">
-        <v>2.324591159820557</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_24</t>
+          <t>model_10_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2529001139271286</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.058664117210247</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.58062806935458</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.757246804906131</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8268194198608398</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G4" t="n">
-        <v>3.186753749847412</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H4" t="n">
-        <v>2.201467037200928</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I4" t="n">
-        <v>2.723085403442383</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_23</t>
+          <t>model_10_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2533539860781996</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.052690511871569</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D5" t="n">
-        <v>-15.57217844254938</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.75154374081445</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8263171315193176</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G5" t="n">
-        <v>3.184391498565674</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H5" t="n">
-        <v>2.200345277786255</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I5" t="n">
-        <v>2.721312046051025</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_22</t>
+          <t>model_10_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2539201774455352</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.044596484590304</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.5637878627421</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.744405794775453</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8256905674934387</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G6" t="n">
-        <v>3.181190967559814</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H6" t="n">
-        <v>2.199231147766113</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I6" t="n">
-        <v>2.71909236907959</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_21</t>
+          <t>model_10_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2545636652746319</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.036488236517679</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D7" t="n">
-        <v>-15.55048602889187</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.736280239402895</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8249782919883728</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G7" t="n">
-        <v>3.177984714508057</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H7" t="n">
-        <v>2.197464942932129</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I7" t="n">
-        <v>2.71656608581543</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_20</t>
+          <t>model_10_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2553393023635135</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.025400114041432</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.5386848501539</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.726426268683241</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8241199851036072</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1735999584198</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H8" t="n">
-        <v>2.195898056030273</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I8" t="n">
-        <v>2.713502168655396</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_19</t>
+          <t>model_10_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.25618206801555</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.015404975462831</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.51858662126775</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.715660731598749</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8231872916221619</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G9" t="n">
-        <v>3.169647455215454</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H9" t="n">
-        <v>2.193229675292969</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I9" t="n">
-        <v>2.71015453338623</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_18</t>
+          <t>model_10_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2571192683172407</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.001722255681646</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D10" t="n">
-        <v>-15.50382990810812</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.703507297755861</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8221501111984253</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G10" t="n">
-        <v>3.164236307144165</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H10" t="n">
-        <v>2.191270351409912</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I10" t="n">
-        <v>2.706375122070312</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_17</t>
+          <t>model_10_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2580303934490467</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.990585194674614</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.48142556357619</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.69149339382823</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8211416602134705</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15983247756958</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H11" t="n">
-        <v>2.188295602798462</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I11" t="n">
-        <v>2.70263934135437</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_16</t>
+          <t>model_10_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2592566544523666</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.973864546040286</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D12" t="n">
-        <v>-15.45754254697923</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.675412228071696</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8197846412658691</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G12" t="n">
-        <v>3.153220176696777</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H12" t="n">
-        <v>2.185124635696411</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I12" t="n">
-        <v>2.697638988494873</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_15</t>
+          <t>model_10_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2604237922609318</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.956439648982871</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D13" t="n">
-        <v>-15.43735593698428</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.659654377243674</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8184928894042969</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G13" t="n">
-        <v>3.146329641342163</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H13" t="n">
-        <v>2.18244457244873</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I13" t="n">
-        <v>2.692739248275757</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_14</t>
+          <t>model_10_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2617130536883556</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.935430498075956</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D14" t="n">
-        <v>-15.41905672661066</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.641826734833847</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8170660734176636</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G14" t="n">
-        <v>3.138021469116211</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H14" t="n">
-        <v>2.180014610290527</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I14" t="n">
-        <v>2.687195539474487</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_13</t>
+          <t>model_10_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2631335736814759</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.910585538343521</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D15" t="n">
-        <v>-15.4024104534026</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.621762001377977</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8154940009117126</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G15" t="n">
-        <v>3.128196954727173</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H15" t="n">
-        <v>2.177804470062256</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I15" t="n">
-        <v>2.680956363677979</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_12</t>
+          <t>model_10_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2646399608242348</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.888067565241588</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D16" t="n">
-        <v>-15.37058894741294</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.600193388106467</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8138269186019897</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G16" t="n">
-        <v>3.119292259216309</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H16" t="n">
-        <v>2.173579454421997</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I16" t="n">
-        <v>2.674249649047852</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_7</t>
+          <t>model_10_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2660504589960777</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.336213837858979</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D17" t="n">
-        <v>-13.59531869133149</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.545202517989789</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8122658729553223</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G17" t="n">
-        <v>3.296509504318237</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H17" t="n">
-        <v>1.937870860099792</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I17" t="n">
-        <v>2.657150030136108</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_11</t>
+          <t>model_10_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2663860734333888</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.859311087141529</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D18" t="n">
-        <v>-15.33960132419907</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.574631884375481</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.811894416809082</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G18" t="n">
-        <v>3.10792064666748</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H18" t="n">
-        <v>2.169465303421021</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I18" t="n">
-        <v>2.666301012039185</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="19">
@@ -1009,245 +1009,245 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2666395122487204</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.318978754243011</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.55819444507318</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.526149919935955</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8116139769554138</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G19" t="n">
-        <v>3.289693593978882</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H19" t="n">
-        <v>1.932941675186157</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I19" t="n">
-        <v>2.651225328445435</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_10</t>
+          <t>model_10_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2681735794546832</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.830102819963882</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D20" t="n">
-        <v>-15.3025485824664</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.547513655176305</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8099161982536316</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G20" t="n">
-        <v>3.096370458602905</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H20" t="n">
-        <v>2.16454553604126</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I20" t="n">
-        <v>2.657868623733521</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_9</t>
+          <t>model_10_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2704132749917733</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.785511914608404</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D21" t="n">
-        <v>-15.27894781023892</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.512740578025628</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8074375987052917</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G21" t="n">
-        <v>3.078737258911133</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H21" t="n">
-        <v>2.161412000656128</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I21" t="n">
-        <v>2.647055864334106</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_5</t>
+          <t>model_10_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2713618142672046</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.208404359854026</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.59305363782943</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.458701140718922</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8063877820968628</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G22" t="n">
-        <v>3.245967626571655</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H22" t="n">
-        <v>1.937570095062256</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I22" t="n">
-        <v>2.630251884460449</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_8</t>
+          <t>model_10_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2726973221298956</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.745257912040192</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.23220391158251</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.476212543603655</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8049098253250122</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G23" t="n">
-        <v>3.062819242477417</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H23" t="n">
-        <v>2.155205488204956</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I23" t="n">
-        <v>2.635697603225708</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_3</t>
+          <t>model_10_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2745180947365213</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.924712239663942</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D24" t="n">
-        <v>-16.34191580886948</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.146779266660191</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F24" t="n">
-        <v>0.802894651889801</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G24" t="n">
-        <v>2.738338947296143</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H24" t="n">
-        <v>2.30254602432251</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I24" t="n">
-        <v>2.533259153366089</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_2</t>
+          <t>model_10_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3031573654462563</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.866318059382119</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D25" t="n">
-        <v>-15.0242195750157</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E25" t="n">
-        <v>-6.169428147991132</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7711995244026184</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G25" t="n">
-        <v>2.319802761077881</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H25" t="n">
-        <v>2.127590894699097</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I25" t="n">
-        <v>2.229349851608276</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_1</t>
+          <t>model_10_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3426021469931637</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.421440695084289</v>
+        <v>0.6356498070262204</v>
       </c>
       <c r="D26" t="n">
-        <v>-14.0940501966452</v>
+        <v>-0.4299051501425744</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.683004615310419</v>
+        <v>0.2435373185495373</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7275457382202148</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G26" t="n">
-        <v>2.14387845993042</v>
+        <v>0.3348711133003235</v>
       </c>
       <c r="H26" t="n">
-        <v>2.004089117050171</v>
+        <v>0.8773518204689026</v>
       </c>
       <c r="I26" t="n">
-        <v>2.078095436096191</v>
+        <v>0.590156614780426</v>
       </c>
     </row>
   </sheetData>
